--- a/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - Neutropenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Levothyroxine sodium - Neutropenia.xlsx
@@ -173,910 +173,1051 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>527683</t>
+  </si>
+  <si>
+    <t>vitamin e</t>
+  </si>
+  <si>
+    <t>2617463</t>
+  </si>
+  <si>
+    <t>neutropenia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>17289546</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>17404915</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>53853007</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>3814847</t>
+  </si>
+  <si>
+    <t>propylthiouracil</t>
+  </si>
+  <si>
+    <t>17474564</t>
+  </si>
+  <si>
+    <t>17932939</t>
+  </si>
+  <si>
+    <t>16263405</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>61766349</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>52012320</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>1658611</t>
+  </si>
+  <si>
+    <t>nr1i2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>17495654</t>
+  </si>
+  <si>
+    <t>28454750</t>
+  </si>
+  <si>
+    <t>gene product variant causes</t>
+  </si>
+  <si>
+    <t>1731240</t>
+  </si>
+  <si>
+    <t>tp53 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23307556</t>
+  </si>
+  <si>
+    <t>22444830</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>28400719</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>21629049</t>
+  </si>
+  <si>
+    <t>96043914</t>
+  </si>
+  <si>
+    <t>73477470</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>84658809</t>
+  </si>
+  <si>
+    <t>70750769</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>55000515</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>51482599</t>
+  </si>
+  <si>
+    <t>2828762</t>
+  </si>
+  <si>
+    <t>ugt1a9 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20654343</t>
+  </si>
+  <si>
+    <t>28140409</t>
+  </si>
+  <si>
+    <t>94738643</t>
+  </si>
+  <si>
+    <t>649130</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>21934281</t>
+  </si>
+  <si>
+    <t>78328009</t>
+  </si>
+  <si>
+    <t>4041439</t>
+  </si>
+  <si>
+    <t>dopamine</t>
+  </si>
+  <si>
+    <t>20779128</t>
+  </si>
+  <si>
+    <t>125284181</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>4034346</t>
+  </si>
+  <si>
+    <t>dactinomycin</t>
+  </si>
+  <si>
+    <t>22879195</t>
+  </si>
+  <si>
+    <t>65641590</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>4027386</t>
+  </si>
+  <si>
+    <t>methimazole</t>
+  </si>
+  <si>
+    <t>22827470</t>
+  </si>
+  <si>
+    <t>95252251</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>23681539</t>
+  </si>
+  <si>
+    <t>129169914</t>
+  </si>
+  <si>
+    <t>121536516</t>
+  </si>
+  <si>
+    <t>2069033</t>
+  </si>
+  <si>
+    <t>ugt1a1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20743114</t>
+  </si>
+  <si>
+    <t>is tributary of</t>
+  </si>
+  <si>
+    <t>23444629</t>
+  </si>
+  <si>
+    <t>54706635</t>
+  </si>
+  <si>
+    <t>61755182</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>28150250</t>
+  </si>
+  <si>
+    <t>28150247</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>115181099</t>
+  </si>
+  <si>
+    <t>24388072</t>
+  </si>
+  <si>
+    <t>3043633</t>
+  </si>
+  <si>
+    <t>transplant recipients</t>
+  </si>
+  <si>
+    <t>130508721</t>
+  </si>
+  <si>
+    <t>54422247</t>
+  </si>
+  <si>
+    <t>2476543</t>
+  </si>
+  <si>
+    <t>tnf (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23948919</t>
+  </si>
+  <si>
+    <t>28511485</t>
+  </si>
+  <si>
+    <t>28511486</t>
+  </si>
+  <si>
+    <t>115981666</t>
+  </si>
+  <si>
+    <t>1768645</t>
+  </si>
+  <si>
+    <t>abcc2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22301588</t>
+  </si>
+  <si>
+    <t>28185819</t>
+  </si>
+  <si>
+    <t>28185821</t>
+  </si>
+  <si>
+    <t>128203166</t>
+  </si>
+  <si>
+    <t>790153</t>
+  </si>
+  <si>
+    <t>hepatitis, drug-induced</t>
+  </si>
+  <si>
+    <t>16510491</t>
+  </si>
+  <si>
+    <t>40064947</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>16510488</t>
+  </si>
+  <si>
+    <t>40064942</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>52186077</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>53855626</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>88239420</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>51917388</t>
+  </si>
+  <si>
+    <t>74019355</t>
+  </si>
+  <si>
+    <t>124039662</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>55250996</t>
+  </si>
+  <si>
+    <t>88073728</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>52406784</t>
+  </si>
+  <si>
+    <t>95958340</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>51505871</t>
+  </si>
+  <si>
+    <t>62705326</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>55372057</t>
+  </si>
+  <si>
+    <t>536761</t>
+  </si>
+  <si>
+    <t>hepatitis, toxic</t>
+  </si>
+  <si>
+    <t>16510489</t>
+  </si>
+  <si>
+    <t>40064944</t>
+  </si>
+  <si>
+    <t>4049124</t>
+  </si>
+  <si>
+    <t>hyperthyroidism</t>
+  </si>
+  <si>
+    <t>16511173</t>
+  </si>
+  <si>
+    <t>67534711</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>1937679</t>
+  </si>
+  <si>
+    <t>drug-induced acute liver injury</t>
+  </si>
+  <si>
+    <t>16510490</t>
+  </si>
+  <si>
+    <t>40064946</t>
+  </si>
+  <si>
+    <t>4989214</t>
+  </si>
+  <si>
+    <t>autoimmune hemolytic anemia</t>
+  </si>
+  <si>
+    <t>16509734</t>
+  </si>
+  <si>
+    <t>40056464</t>
+  </si>
+  <si>
+    <t>4809042</t>
+  </si>
+  <si>
+    <t>cold hemagglutinin disease</t>
+  </si>
+  <si>
+    <t>16509732</t>
+  </si>
+  <si>
+    <t>40056453</t>
+  </si>
+  <si>
+    <t>3114103</t>
+  </si>
+  <si>
+    <t>idiopathic autoimmune hemolytic anemia</t>
+  </si>
+  <si>
+    <t>16509733</t>
+  </si>
+  <si>
+    <t>40056461</t>
+  </si>
+  <si>
+    <t>2787001</t>
+  </si>
+  <si>
+    <t>mmp2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18614559</t>
+  </si>
+  <si>
+    <t>20655011</t>
+  </si>
+  <si>
+    <t>28450649</t>
+  </si>
+  <si>
+    <t>2786169</t>
+  </si>
+  <si>
+    <t>cyp2c8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19897603</t>
+  </si>
+  <si>
+    <t>28450416</t>
+  </si>
+  <si>
+    <t>270275</t>
+  </si>
+  <si>
+    <t>anemia, hemolytic, idiopathic acquired</t>
+  </si>
+  <si>
+    <t>16509735</t>
+  </si>
+  <si>
+    <t>40056472</t>
+  </si>
+  <si>
+    <t>2151178</t>
+  </si>
+  <si>
+    <t>ace (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18281748</t>
+  </si>
+  <si>
+    <t>28425913</t>
+  </si>
+  <si>
+    <t>1908618</t>
+  </si>
+  <si>
+    <t>ugt1a7 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22263157</t>
+  </si>
+  <si>
+    <t>28511332</t>
+  </si>
+  <si>
+    <t>94738661</t>
+  </si>
+  <si>
+    <t>28511333</t>
+  </si>
+  <si>
+    <t>1658839</t>
+  </si>
+  <si>
+    <t>nr1i3 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19803329</t>
+  </si>
+  <si>
+    <t>28454731</t>
+  </si>
+  <si>
+    <t>559349</t>
+  </si>
+  <si>
+    <t>adverse reaction to drug</t>
+  </si>
+  <si>
+    <t>16510714</t>
+  </si>
+  <si>
+    <t>66112366</t>
+  </si>
+  <si>
+    <t>71291833</t>
+  </si>
+  <si>
+    <t>73758787</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>16509526</t>
+  </si>
+  <si>
+    <t>57045875</t>
+  </si>
+  <si>
+    <t>432075</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>16509638</t>
+  </si>
+  <si>
+    <t>67209143</t>
+  </si>
+  <si>
+    <t>102368212</t>
+  </si>
+  <si>
+    <t>87225419</t>
+  </si>
+  <si>
+    <t>52738519</t>
+  </si>
+  <si>
+    <t>70643060</t>
+  </si>
+  <si>
+    <t>51899102</t>
+  </si>
+  <si>
+    <t>64144682</t>
+  </si>
+  <si>
+    <t>93261640</t>
+  </si>
+  <si>
+    <t>74920028</t>
+  </si>
+  <si>
+    <t>60636785</t>
+  </si>
+  <si>
+    <t>90429692</t>
+  </si>
+  <si>
+    <t>74134759</t>
+  </si>
+  <si>
+    <t>836319</t>
+  </si>
+  <si>
+    <t>drug toxicity</t>
+  </si>
+  <si>
+    <t>16510713</t>
+  </si>
+  <si>
+    <t>108962129</t>
+  </si>
+  <si>
+    <t>836219</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>120729725</t>
+  </si>
+  <si>
+    <t>88747127</t>
+  </si>
+  <si>
+    <t>16198525</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>16511122</t>
+  </si>
+  <si>
+    <t>16511094</t>
+  </si>
+  <si>
+    <t>106560640</t>
+  </si>
+  <si>
+    <t>53298657</t>
+  </si>
+  <si>
+    <t>5792608</t>
+  </si>
+  <si>
+    <t>hypokinesia</t>
+  </si>
+  <si>
+    <t>16511415</t>
+  </si>
+  <si>
+    <t>104840415</t>
+  </si>
+  <si>
+    <t>5311945</t>
+  </si>
+  <si>
+    <t>paresthesia</t>
+  </si>
+  <si>
+    <t>16513089</t>
+  </si>
+  <si>
+    <t>91676502</t>
+  </si>
+  <si>
+    <t>77507837</t>
+  </si>
+  <si>
+    <t>5011221</t>
+  </si>
+  <si>
+    <t>vomiting</t>
+  </si>
+  <si>
+    <t>16513754</t>
+  </si>
+  <si>
+    <t>58370261</t>
+  </si>
+  <si>
+    <t>133479803</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>4049133</t>
+  </si>
+  <si>
+    <t>hyperplasia</t>
+  </si>
+  <si>
+    <t>16511066</t>
+  </si>
+  <si>
+    <t>82943253</t>
+  </si>
+  <si>
+    <t>4048874</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>16512802</t>
+  </si>
+  <si>
+    <t>92571924</t>
+  </si>
+  <si>
+    <t>4047527</t>
+  </si>
+  <si>
+    <t>graves disease</t>
+  </si>
+  <si>
+    <t>16510898</t>
+  </si>
+  <si>
+    <t>97394335</t>
+  </si>
+  <si>
+    <t>52090937</t>
+  </si>
+  <si>
+    <t>4028736</t>
+  </si>
+  <si>
+    <t>necrosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>16512830</t>
+  </si>
+  <si>
+    <t>133123267</t>
+  </si>
+  <si>
+    <t>3815826</t>
+  </si>
+  <si>
+    <t>thyroid diseases</t>
+  </si>
+  <si>
+    <t>16513698</t>
+  </si>
+  <si>
+    <t>118476586</t>
+  </si>
+  <si>
+    <t>3814649</t>
+  </si>
+  <si>
+    <t>seizures</t>
+  </si>
+  <si>
+    <t>16513502</t>
+  </si>
+  <si>
+    <t>56726739</t>
+  </si>
+  <si>
+    <t>78348916</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>16513138</t>
+  </si>
+  <si>
+    <t>40276512</t>
+  </si>
+  <si>
+    <t>73375791</t>
+  </si>
+  <si>
+    <t>79382333</t>
+  </si>
+  <si>
+    <t>220950</t>
+  </si>
+  <si>
+    <t>kidney failure, acute</t>
+  </si>
+  <si>
+    <t>16509600</t>
+  </si>
+  <si>
+    <t>62488157</t>
+  </si>
+  <si>
+    <t>3784358</t>
+  </si>
+  <si>
+    <t>replacement therapy</t>
+  </si>
+  <si>
+    <t>53036396</t>
+  </si>
+  <si>
+    <t>56632228</t>
+  </si>
+  <si>
+    <t>2785960</t>
+  </si>
+  <si>
+    <t>cyp3a4 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23184282</t>
+  </si>
+  <si>
+    <t>28430734</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>61766253</t>
+  </si>
+  <si>
+    <t>56014994</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>69247051</t>
+  </si>
+  <si>
+    <t>103185505</t>
+  </si>
+  <si>
+    <t>81727826</t>
+  </si>
+  <si>
+    <t>60867448</t>
+  </si>
+  <si>
+    <t>65092324</t>
+  </si>
+  <si>
+    <t>60831442</t>
+  </si>
+  <si>
+    <t>75581618</t>
+  </si>
+  <si>
+    <t>55398107</t>
+  </si>
+  <si>
+    <t>53486298</t>
+  </si>
+  <si>
+    <t>110917376</t>
+  </si>
+  <si>
+    <t>106533255</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>52674209</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
     <t>patients</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>2617463</t>
-  </si>
-  <si>
-    <t>neutropenia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>119021160</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>120707955</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>117574291</t>
+    <t>51381471</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>118031156</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117901141</t>
+    <t>54364020</t>
+  </si>
+  <si>
+    <t>52757557</t>
+  </si>
+  <si>
+    <t>88834538</t>
+  </si>
+  <si>
+    <t>51690308</t>
   </si>
   <si>
     <t>is not process of</t>
   </si>
   <si>
-    <t>133287485</t>
+    <t>66891791</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>117457628</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>155032942</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>118036963</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>2069033</t>
-  </si>
-  <si>
-    <t>ugt1a1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>89545367</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>86006577</t>
-  </si>
-  <si>
-    <t>is tributary of</t>
-  </si>
-  <si>
-    <t>90741050</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>181377801</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>121143662</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>128230759</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>94510324</t>
-  </si>
-  <si>
-    <t>gene product variant causes</t>
-  </si>
-  <si>
-    <t>94510315</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>3814847</t>
-  </si>
-  <si>
-    <t>propylthiouracil</t>
-  </si>
-  <si>
-    <t>85420605</t>
-  </si>
-  <si>
-    <t>83600647</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>82503574</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>128178168</t>
-  </si>
-  <si>
-    <t>118243858</t>
-  </si>
-  <si>
-    <t>527683</t>
-  </si>
-  <si>
-    <t>vitamin e</t>
-  </si>
-  <si>
-    <t>84387702</t>
-  </si>
-  <si>
-    <t>83668844</t>
-  </si>
-  <si>
-    <t>120218564</t>
-  </si>
-  <si>
-    <t>1658611</t>
-  </si>
-  <si>
-    <t>nr1i2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85260640</t>
-  </si>
-  <si>
-    <t>94534745</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>87450070</t>
-  </si>
-  <si>
-    <t>139952611</t>
-  </si>
-  <si>
-    <t>162246372</t>
-  </si>
-  <si>
-    <t>649130</t>
-  </si>
-  <si>
-    <t>zinc</t>
-  </si>
-  <si>
-    <t>87194219</t>
-  </si>
-  <si>
-    <t>144721285</t>
-  </si>
-  <si>
-    <t>4041439</t>
-  </si>
-  <si>
-    <t>dopamine</t>
-  </si>
-  <si>
-    <t>85605694</t>
-  </si>
-  <si>
-    <t>191472965</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>4034346</t>
-  </si>
-  <si>
-    <t>dactinomycin</t>
-  </si>
-  <si>
-    <t>88459331</t>
-  </si>
-  <si>
-    <t>131976303</t>
-  </si>
-  <si>
-    <t>4027386</t>
-  </si>
-  <si>
-    <t>methimazole</t>
-  </si>
-  <si>
-    <t>89775568</t>
-  </si>
-  <si>
-    <t>161439317</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>88586882</t>
-  </si>
-  <si>
-    <t>195324240</t>
-  </si>
-  <si>
-    <t>187727263</t>
-  </si>
-  <si>
-    <t>2828762</t>
-  </si>
-  <si>
-    <t>ugt1a9 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86575267</t>
-  </si>
-  <si>
-    <t>160913803</t>
-  </si>
-  <si>
-    <t>94499786</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>120196476</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>118402157</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>154281003</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>140400322</t>
-  </si>
-  <si>
-    <t>121636341</t>
-  </si>
-  <si>
-    <t>129167912</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>154515314</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>118681684</t>
-  </si>
-  <si>
-    <t>117722842</t>
-  </si>
-  <si>
-    <t>121768514</t>
-  </si>
-  <si>
-    <t>162160075</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>118125235</t>
-  </si>
-  <si>
-    <t>190174881</t>
-  </si>
-  <si>
-    <t>3043633</t>
-  </si>
-  <si>
-    <t>transplant recipients</t>
-  </si>
-  <si>
-    <t>196727765</t>
-  </si>
-  <si>
-    <t>120797391</t>
-  </si>
-  <si>
-    <t>790153</t>
-  </si>
-  <si>
-    <t>hepatitis, drug-induced</t>
-  </si>
-  <si>
-    <t>82758804</t>
-  </si>
-  <si>
-    <t>106251639</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>636875</t>
-  </si>
-  <si>
-    <t>drug-induced liver injury</t>
-  </si>
-  <si>
-    <t>82758801</t>
-  </si>
-  <si>
-    <t>106251620</t>
-  </si>
-  <si>
-    <t>536761</t>
-  </si>
-  <si>
-    <t>hepatitis, toxic</t>
-  </si>
-  <si>
-    <t>82758803</t>
-  </si>
-  <si>
-    <t>106251629</t>
-  </si>
-  <si>
-    <t>4049124</t>
-  </si>
-  <si>
-    <t>hyperthyroidism</t>
-  </si>
-  <si>
-    <t>82759486</t>
-  </si>
-  <si>
-    <t>133936134</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>1937679</t>
-  </si>
-  <si>
-    <t>drug-induced acute liver injury</t>
-  </si>
-  <si>
-    <t>82758802</t>
-  </si>
-  <si>
-    <t>106251624</t>
-  </si>
-  <si>
-    <t>4989214</t>
-  </si>
-  <si>
-    <t>autoimmune hemolytic anemia</t>
-  </si>
-  <si>
-    <t>82758047</t>
-  </si>
-  <si>
-    <t>106244837</t>
-  </si>
-  <si>
-    <t>4809042</t>
-  </si>
-  <si>
-    <t>cold hemagglutinin disease</t>
-  </si>
-  <si>
-    <t>82758045</t>
-  </si>
-  <si>
-    <t>106244833</t>
-  </si>
-  <si>
-    <t>3114103</t>
-  </si>
-  <si>
-    <t>idiopathic autoimmune hemolytic anemia</t>
-  </si>
-  <si>
-    <t>82758046</t>
-  </si>
-  <si>
-    <t>106244835</t>
-  </si>
-  <si>
-    <t>2787001</t>
-  </si>
-  <si>
-    <t>mmp2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86892174</t>
-  </si>
-  <si>
-    <t>84725848</t>
-  </si>
-  <si>
-    <t>94824094</t>
-  </si>
-  <si>
-    <t>2786169</t>
-  </si>
-  <si>
-    <t>cyp2c8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85723005</t>
-  </si>
-  <si>
-    <t>94823857</t>
-  </si>
-  <si>
-    <t>270275</t>
-  </si>
-  <si>
-    <t>anemia, hemolytic, idiopathic acquired</t>
-  </si>
-  <si>
-    <t>82758048</t>
-  </si>
-  <si>
-    <t>106244839</t>
-  </si>
-  <si>
-    <t>2151178</t>
-  </si>
-  <si>
-    <t>ace (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84356659</t>
-  </si>
-  <si>
-    <t>94796259</t>
-  </si>
-  <si>
-    <t>1731240</t>
-  </si>
-  <si>
-    <t>tp53 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88432506</t>
-  </si>
-  <si>
-    <t>89226498</t>
-  </si>
-  <si>
-    <t>94773989</t>
-  </si>
-  <si>
-    <t>1658839</t>
-  </si>
-  <si>
-    <t>nr1i3 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85618981</t>
-  </si>
-  <si>
-    <t>94534718</t>
-  </si>
-  <si>
-    <t>432075</t>
-  </si>
-  <si>
-    <t>anemia</t>
-  </si>
-  <si>
-    <t>82757951</t>
-  </si>
-  <si>
-    <t>168567848</t>
-  </si>
-  <si>
-    <t>118094899</t>
-  </si>
-  <si>
-    <t>119014378</t>
-  </si>
-  <si>
-    <t>140540357</t>
-  </si>
-  <si>
-    <t>133705999</t>
-  </si>
-  <si>
-    <t>153600879</t>
-  </si>
-  <si>
-    <t>159490869</t>
-  </si>
-  <si>
-    <t>141354856</t>
-  </si>
-  <si>
-    <t>156568408</t>
-  </si>
-  <si>
-    <t>127018383</t>
-  </si>
-  <si>
-    <t>137066212</t>
-  </si>
-  <si>
-    <t>130586863</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>82757839</t>
-  </si>
-  <si>
-    <t>123485378</t>
-  </si>
-  <si>
-    <t>2476543</t>
-  </si>
-  <si>
-    <t>tnf (homo sapiens)</t>
-  </si>
-  <si>
-    <t>89983811</t>
-  </si>
-  <si>
-    <t>182204185</t>
-  </si>
-  <si>
-    <t>94865692</t>
-  </si>
-  <si>
-    <t>94865694</t>
-  </si>
-  <si>
-    <t>1768645</t>
-  </si>
-  <si>
-    <t>abcc2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87960201</t>
-  </si>
-  <si>
-    <t>94550906</t>
-  </si>
-  <si>
-    <t>94550909</t>
-  </si>
-  <si>
-    <t>194411740</t>
-  </si>
-  <si>
-    <t>836319</t>
-  </si>
-  <si>
-    <t>drug toxicity</t>
-  </si>
-  <si>
-    <t>82759026</t>
-  </si>
-  <si>
-    <t>175152555</t>
-  </si>
-  <si>
-    <t>836219</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>186945374</t>
-  </si>
-  <si>
-    <t>154923788</t>
-  </si>
-  <si>
-    <t>82422013</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>82759435</t>
-  </si>
-  <si>
-    <t>82759407</t>
-  </si>
-  <si>
-    <t>172772272</t>
-  </si>
-  <si>
-    <t>119597542</t>
-  </si>
-  <si>
-    <t>5792608</t>
-  </si>
-  <si>
-    <t>hypokinesia</t>
-  </si>
-  <si>
-    <t>82759728</t>
-  </si>
-  <si>
-    <t>171051370</t>
-  </si>
-  <si>
-    <t>559349</t>
-  </si>
-  <si>
-    <t>adverse reaction to drug</t>
-  </si>
-  <si>
-    <t>82759027</t>
-  </si>
-  <si>
-    <t>137775730</t>
-  </si>
-  <si>
-    <t>132497811</t>
-  </si>
-  <si>
-    <t>140192861</t>
-  </si>
-  <si>
-    <t>5311945</t>
-  </si>
-  <si>
-    <t>paresthesia</t>
-  </si>
-  <si>
-    <t>82761402</t>
-  </si>
-  <si>
-    <t>157857871</t>
-  </si>
-  <si>
-    <t>143901932</t>
-  </si>
-  <si>
-    <t>5011221</t>
-  </si>
-  <si>
-    <t>vomiting</t>
-  </si>
-  <si>
-    <t>82762067</t>
-  </si>
-  <si>
-    <t>124859657</t>
-  </si>
-  <si>
-    <t>199671634</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>4049133</t>
-  </si>
-  <si>
-    <t>hyperplasia</t>
-  </si>
-  <si>
-    <t>82759379</t>
-  </si>
-  <si>
-    <t>149361356</t>
-  </si>
-  <si>
-    <t>4048874</t>
-  </si>
-  <si>
-    <t>nausea</t>
-  </si>
-  <si>
-    <t>82761115</t>
-  </si>
-  <si>
-    <t>158759783</t>
-  </si>
-  <si>
-    <t>4047527</t>
-  </si>
-  <si>
-    <t>graves disease</t>
-  </si>
-  <si>
-    <t>82759211</t>
-  </si>
-  <si>
-    <t>163591338</t>
-  </si>
-  <si>
-    <t>118300889</t>
-  </si>
-  <si>
-    <t>4028736</t>
-  </si>
-  <si>
-    <t>necrosis</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>82761143</t>
-  </si>
-  <si>
-    <t>199314976</t>
-  </si>
-  <si>
-    <t>3815826</t>
-  </si>
-  <si>
-    <t>thyroid diseases</t>
-  </si>
-  <si>
-    <t>82762011</t>
-  </si>
-  <si>
-    <t>184669224</t>
-  </si>
-  <si>
-    <t>3814649</t>
-  </si>
-  <si>
-    <t>seizures</t>
-  </si>
-  <si>
-    <t>82761815</t>
-  </si>
-  <si>
-    <t>144726368</t>
-  </si>
-  <si>
-    <t>119202585</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>82761451</t>
-  </si>
-  <si>
-    <t>139761676</t>
-  </si>
-  <si>
-    <t>143686327</t>
-  </si>
-  <si>
-    <t>106466246</t>
-  </si>
-  <si>
-    <t>220950</t>
-  </si>
-  <si>
-    <t>kidney failure, acute</t>
-  </si>
-  <si>
-    <t>82757913</t>
-  </si>
-  <si>
-    <t>128949435</t>
-  </si>
-  <si>
-    <t>1908618</t>
-  </si>
-  <si>
-    <t>ugt1a7 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87913578</t>
-  </si>
-  <si>
-    <t>94865508</t>
-  </si>
-  <si>
-    <t>94865505</t>
-  </si>
-  <si>
-    <t>160913840</t>
-  </si>
-  <si>
-    <t>3784358</t>
-  </si>
-  <si>
-    <t>replacement therapy</t>
-  </si>
-  <si>
-    <t>119349686</t>
-  </si>
-  <si>
-    <t>123044691</t>
-  </si>
-  <si>
-    <t>2785960</t>
-  </si>
-  <si>
-    <t>cyp3a4 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>89254786</t>
-  </si>
-  <si>
-    <t>94494447</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>128178084</t>
-  </si>
-  <si>
-    <t>122399657</t>
+    <t>51812482</t>
+  </si>
+  <si>
+    <t>51265582</t>
+  </si>
+  <si>
+    <t>51824039</t>
+  </si>
+  <si>
+    <t>4034863</t>
+  </si>
+  <si>
+    <t>equus caballus</t>
+  </si>
+  <si>
+    <t>88743885</t>
+  </si>
+  <si>
+    <t>88763683</t>
+  </si>
+  <si>
+    <t>55253108</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>53133477</t>
+  </si>
+  <si>
+    <t>51631798</t>
+  </si>
+  <si>
+    <t>97206353</t>
+  </si>
+  <si>
+    <t>837059</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>96180395</t>
+  </si>
+  <si>
+    <t>52851926</t>
+  </si>
+  <si>
+    <t>79418821</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>111222386</t>
+  </si>
+  <si>
+    <t>64954442</t>
+  </si>
+  <si>
+    <t>68445297</t>
+  </si>
+  <si>
+    <t>116014395</t>
+  </si>
+  <si>
+    <t>does not coexist with</t>
+  </si>
+  <si>
+    <t>68701959</t>
+  </si>
+  <si>
+    <t>67870611</t>
+  </si>
+  <si>
+    <t>55442187</t>
+  </si>
+  <si>
+    <t>71866738</t>
   </si>
   <si>
     <t>2986464</t>
@@ -1085,148 +1226,22 @@
     <t>injection procedure</t>
   </si>
   <si>
-    <t>189180350</t>
-  </si>
-  <si>
-    <t>128542231</t>
+    <t>123035272</t>
+  </si>
+  <si>
+    <t>62101779</t>
   </si>
   <si>
     <t>does not complicate</t>
   </si>
   <si>
-    <t>143659314</t>
-  </si>
-  <si>
-    <t>119761699</t>
-  </si>
-  <si>
-    <t>118182923</t>
-  </si>
-  <si>
-    <t>4034863</t>
-  </si>
-  <si>
-    <t>equus caballus</t>
-  </si>
-  <si>
-    <t>154941370</t>
-  </si>
-  <si>
-    <t>154920292</t>
-  </si>
-  <si>
-    <t>121647026</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>119399990</t>
-  </si>
-  <si>
-    <t>117836109</t>
-  </si>
-  <si>
-    <t>163412828</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>135683482</t>
-  </si>
-  <si>
-    <t>169371132</t>
-  </si>
-  <si>
-    <t>172729941</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>127289764</t>
-  </si>
-  <si>
-    <t>148189476</t>
-  </si>
-  <si>
-    <t>127251452</t>
-  </si>
-  <si>
-    <t>121767751</t>
-  </si>
-  <si>
-    <t>177123374</t>
-  </si>
-  <si>
-    <t>131456971</t>
-  </si>
-  <si>
-    <t>118951813</t>
-  </si>
-  <si>
-    <t>141970822</t>
-  </si>
-  <si>
-    <t>119763181</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>137167810</t>
-  </si>
-  <si>
-    <t>151041589</t>
-  </si>
-  <si>
-    <t>121479994</t>
-  </si>
-  <si>
-    <t>117693343</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>177432442</t>
-  </si>
-  <si>
-    <t>182211973</t>
-  </si>
-  <si>
-    <t>does not coexist with</t>
-  </si>
-  <si>
-    <t>138275348</t>
-  </si>
-  <si>
-    <t>121863015</t>
-  </si>
-  <si>
-    <t>134799695</t>
-  </si>
-  <si>
-    <t>135090880</t>
-  </si>
-  <si>
-    <t>134324417</t>
-  </si>
-  <si>
-    <t>131312492</t>
+    <t>79354984</t>
+  </si>
+  <si>
+    <t>53439089</t>
+  </si>
+  <si>
+    <t>51956519</t>
   </si>
   <si>
     <t>2940375</t>
@@ -1235,52 +1250,37 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>142855634</t>
-  </si>
-  <si>
-    <t>120413392</t>
-  </si>
-  <si>
-    <t>120523987</t>
+    <t>76470242</t>
+  </si>
+  <si>
+    <t>59544087</t>
+  </si>
+  <si>
+    <t>54191904</t>
+  </si>
+  <si>
+    <t>115399020</t>
+  </si>
+  <si>
+    <t>54055480</t>
+  </si>
+  <si>
+    <t>54191997</t>
   </si>
   <si>
     <t>is not associated with</t>
   </si>
   <si>
-    <t>125971092</t>
-  </si>
-  <si>
-    <t>181528403</t>
-  </si>
-  <si>
-    <t>120523904</t>
-  </si>
-  <si>
     <t>94761</t>
   </si>
   <si>
     <t>administration, oral</t>
   </si>
   <si>
-    <t>175820446</t>
-  </si>
-  <si>
-    <t>118238362</t>
-  </si>
-  <si>
-    <t>837059</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>162411636</t>
-  </si>
-  <si>
-    <t>119149582</t>
-  </si>
-  <si>
-    <t>145784150</t>
+    <t>109633585</t>
+  </si>
+  <si>
+    <t>51999398</t>
   </si>
   <si>
     <t>4746651</t>
@@ -1289,19 +1289,19 @@
     <t>physicians</t>
   </si>
   <si>
-    <t>182447731</t>
-  </si>
-  <si>
-    <t>132833457</t>
+    <t>116224839</t>
+  </si>
+  <si>
+    <t>108668812</t>
+  </si>
+  <si>
+    <t>66343201</t>
   </si>
   <si>
     <t>diagnoses</t>
   </si>
   <si>
-    <t>146841073</t>
-  </si>
-  <si>
-    <t>174846866</t>
+    <t>80444489</t>
   </si>
   <si>
     <t>3784346</t>
@@ -1310,10 +1310,10 @@
     <t>hormone therapy</t>
   </si>
   <si>
-    <t>152174481</t>
-  </si>
-  <si>
-    <t>120387639</t>
+    <t>85794443</t>
+  </si>
+  <si>
+    <t>54044151</t>
   </si>
   <si>
     <t>3739176</t>
@@ -1322,13 +1322,13 @@
     <t>thyroid preparations</t>
   </si>
   <si>
-    <t>144837604</t>
-  </si>
-  <si>
-    <t>119020701</t>
-  </si>
-  <si>
-    <t>187727259</t>
+    <t>78447442</t>
+  </si>
+  <si>
+    <t>52757159</t>
+  </si>
+  <si>
+    <t>121536509</t>
   </si>
   <si>
     <t>243455</t>
@@ -1337,10 +1337,10 @@
     <t>obesity</t>
   </si>
   <si>
-    <t>182087315</t>
-  </si>
-  <si>
-    <t>122265862</t>
+    <t>115890094</t>
+  </si>
+  <si>
+    <t>55889860</t>
   </si>
   <si>
     <t>242247</t>
@@ -1349,10 +1349,10 @@
     <t>deglutition disorders</t>
   </si>
   <si>
-    <t>190335518</t>
-  </si>
-  <si>
-    <t>156036137</t>
+    <t>124145103</t>
+  </si>
+  <si>
+    <t>89804931</t>
   </si>
   <si>
     <t>223879</t>
@@ -1361,13 +1361,13 @@
     <t>dietary supplementation</t>
   </si>
   <si>
-    <t>122559337</t>
-  </si>
-  <si>
-    <t>190328805</t>
-  </si>
-  <si>
-    <t>152727698</t>
+    <t>56148189</t>
+  </si>
+  <si>
+    <t>86329224</t>
+  </si>
+  <si>
+    <t>124125548</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>319.0</v>
+        <v>597.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1590,75 +1590,39 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>128.0</v>
+        <v>124.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1670,75 +1634,45 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>124.0</v>
+        <v>118.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1750,45 +1684,39 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>118.0</v>
+        <v>105.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1800,39 +1728,39 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>117.0</v>
+        <v>73.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1844,45 +1772,45 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105.0</v>
+        <v>69.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1894,34 +1822,40 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
         <v>93</v>
+      </c>
+      <c r="P7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1938,45 +1872,51 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
         <v>100</v>
       </c>
-      <c r="M8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>120</v>
-      </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1988,34 +1928,40 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -2032,34 +1978,34 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -2076,34 +2022,34 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2120,57 +2066,39 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>140</v>
-      </c>
-      <c r="R12" t="s">
-        <v>60</v>
-      </c>
-      <c r="S12" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2182,40 +2110,52 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2232,100 +2172,70 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="Q14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="R14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="T14" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="V14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="Z14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -2342,39 +2252,39 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2386,39 +2296,51 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2430,34 +2352,46 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>158</v>
+      </c>
+      <c r="R17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -2474,34 +2408,34 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2518,34 +2452,34 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -2562,39 +2496,105 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" t="s">
         <v>177</v>
+      </c>
+      <c r="R20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" t="s">
+        <v>178</v>
+      </c>
+      <c r="T20" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -2606,39 +2606,39 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -2650,39 +2650,39 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" t="s">
         <v>199</v>
-      </c>
-      <c r="F22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" t="s">
-        <v>201</v>
-      </c>
-      <c r="L22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" t="s">
-        <v>202</v>
-      </c>
-      <c r="N22" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2694,34 +2694,34 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
         <v>203</v>
       </c>
-      <c r="F23" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" t="s">
-        <v>102</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
-      </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -2738,40 +2738,34 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
         <v>207</v>
       </c>
-      <c r="F24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" t="s">
-        <v>209</v>
-      </c>
-      <c r="L24" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" t="s">
-        <v>210</v>
-      </c>
       <c r="N24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" t="s">
-        <v>211</v>
-      </c>
-      <c r="P24" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -2788,34 +2782,34 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -2832,34 +2826,34 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N26" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
@@ -2876,34 +2870,40 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
         <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="O27" t="s">
+        <v>220</v>
+      </c>
+      <c r="P27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -2920,40 +2920,34 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" t="s">
-        <v>228</v>
-      </c>
-      <c r="P28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -2970,39 +2964,39 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3014,105 +3008,39 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
-      </c>
-      <c r="O30" t="s">
-        <v>237</v>
-      </c>
-      <c r="P30" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>238</v>
-      </c>
-      <c r="R30" t="s">
-        <v>153</v>
-      </c>
-      <c r="S30" t="s">
-        <v>239</v>
-      </c>
-      <c r="T30" t="s">
-        <v>87</v>
-      </c>
-      <c r="U30" t="s">
-        <v>240</v>
-      </c>
-      <c r="V30" t="s">
-        <v>66</v>
-      </c>
-      <c r="W30" t="s">
-        <v>241</v>
-      </c>
-      <c r="X30" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3124,39 +3052,51 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s">
-        <v>190</v>
+        <v>140</v>
+      </c>
+      <c r="O31" t="s">
+        <v>237</v>
+      </c>
+      <c r="P31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>238</v>
+      </c>
+      <c r="R31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3168,51 +3108,39 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
         <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="N32" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" t="s">
-        <v>256</v>
-      </c>
-      <c r="P32" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>257</v>
-      </c>
-      <c r="R32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3224,51 +3152,51 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="N33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="P33" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="Q33" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="R33" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3280,39 +3208,39 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F34" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -3324,40 +3252,100 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="M35" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="O35" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P35" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>258</v>
+      </c>
+      <c r="R35" t="s">
+        <v>163</v>
+      </c>
+      <c r="S35" t="s">
+        <v>259</v>
+      </c>
+      <c r="T35" t="s">
+        <v>172</v>
+      </c>
+      <c r="U35" t="s">
+        <v>260</v>
+      </c>
+      <c r="V35" t="s">
+        <v>172</v>
+      </c>
+      <c r="W35" t="s">
+        <v>261</v>
+      </c>
+      <c r="X35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -3374,46 +3362,34 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s">
-        <v>102</v>
-      </c>
-      <c r="O36" t="s">
-        <v>277</v>
-      </c>
-      <c r="P36" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>278</v>
-      </c>
-      <c r="R36" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -3430,34 +3406,40 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="M37" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s">
-        <v>87</v>
+        <v>126</v>
+      </c>
+      <c r="O37" t="s">
+        <v>276</v>
+      </c>
+      <c r="P37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -3474,46 +3456,46 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M38" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P38" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="Q38" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="R38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -3530,40 +3512,34 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s">
-        <v>87</v>
-      </c>
-      <c r="O39" t="s">
-        <v>293</v>
-      </c>
-      <c r="P39" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -3580,40 +3556,40 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="O40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P40" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -3630,34 +3606,40 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N41" t="s">
-        <v>190</v>
+        <v>199</v>
+      </c>
+      <c r="O41" t="s">
+        <v>296</v>
+      </c>
+      <c r="P41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -3674,34 +3656,34 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N42" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43">
@@ -3718,40 +3700,34 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F43" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N43" t="s">
-        <v>155</v>
-      </c>
-      <c r="O43" t="s">
-        <v>312</v>
-      </c>
-      <c r="P43" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44">
@@ -3768,34 +3744,40 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="O44" t="s">
+        <v>310</v>
+      </c>
+      <c r="P44" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45">
@@ -3812,34 +3794,34 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46">
@@ -3856,40 +3838,34 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s">
-        <v>87</v>
-      </c>
-      <c r="O46" t="s">
-        <v>326</v>
-      </c>
-      <c r="P46" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47">
@@ -3906,46 +3882,40 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M47" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="O47" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>332</v>
-      </c>
-      <c r="R47" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -3962,39 +3932,51 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M48" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s">
-        <v>76</v>
+        <v>163</v>
+      </c>
+      <c r="O48" t="s">
+        <v>329</v>
+      </c>
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>330</v>
+      </c>
+      <c r="R48" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -4006,46 +3988,34 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M49" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N49" t="s">
-        <v>93</v>
-      </c>
-      <c r="O49" t="s">
-        <v>341</v>
-      </c>
-      <c r="P49" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>342</v>
-      </c>
-      <c r="R49" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
@@ -4062,34 +4032,34 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="M50" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N50" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -4106,34 +4076,34 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F51" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G51" t="s">
         <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M51" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N51" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -4150,34 +4120,34 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F52" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M52" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -4194,57 +4164,99 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>347</v>
+      </c>
+      <c r="F53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s">
+        <v>349</v>
+      </c>
+      <c r="L53" t="s">
+        <v>199</v>
+      </c>
+      <c r="M53" t="s">
+        <v>350</v>
+      </c>
+      <c r="N53" t="s">
+        <v>172</v>
+      </c>
+      <c r="O53" t="s">
+        <v>351</v>
+      </c>
+      <c r="P53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>352</v>
+      </c>
+      <c r="R53" t="s">
+        <v>121</v>
+      </c>
+      <c r="S53" t="s">
+        <v>353</v>
+      </c>
+      <c r="T53" t="s">
+        <v>116</v>
+      </c>
+      <c r="U53" t="s">
+        <v>354</v>
+      </c>
+      <c r="V53" t="s">
+        <v>189</v>
+      </c>
+      <c r="W53" t="s">
         <v>355</v>
       </c>
-      <c r="F53" t="s">
+      <c r="X53" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y53" t="s">
         <v>356</v>
       </c>
-      <c r="G53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="Z53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s">
         <v>357</v>
       </c>
-      <c r="L53" t="s">
-        <v>153</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="AB53" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC53" t="s">
         <v>358</v>
       </c>
-      <c r="N53" t="s">
+      <c r="AD53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE53" t="s">
         <v>359</v>
       </c>
-      <c r="O53" t="s">
+      <c r="AF53" t="s">
         <v>360</v>
       </c>
-      <c r="P53" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="AG53" t="s">
         <v>361</v>
       </c>
-      <c r="R53" t="s">
-        <v>60</v>
-      </c>
-      <c r="S53" t="s">
-        <v>362</v>
-      </c>
-      <c r="T53" t="s">
-        <v>87</v>
+      <c r="AH53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -4256,45 +4268,81 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" t="s">
         <v>363</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" t="s">
         <v>364</v>
       </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" t="s">
-        <v>58</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>365</v>
-      </c>
-      <c r="L54" t="s">
-        <v>60</v>
       </c>
       <c r="M54" t="s">
         <v>366</v>
       </c>
       <c r="N54" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="O54" t="s">
         <v>367</v>
       </c>
       <c r="P54" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>368</v>
+      </c>
+      <c r="R54" t="s">
+        <v>180</v>
+      </c>
+      <c r="S54" t="s">
+        <v>369</v>
+      </c>
+      <c r="T54" t="s">
+        <v>370</v>
+      </c>
+      <c r="U54" t="s">
+        <v>371</v>
+      </c>
+      <c r="V54" t="s">
+        <v>372</v>
+      </c>
+      <c r="W54" t="s">
+        <v>373</v>
+      </c>
+      <c r="X54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -4306,40 +4354,40 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F55" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K55" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="N55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O55" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P55" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -4356,94 +4404,40 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="M56" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="N56" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="O56" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P56" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>379</v>
-      </c>
-      <c r="R56" t="s">
-        <v>89</v>
-      </c>
-      <c r="S56" t="s">
-        <v>380</v>
-      </c>
-      <c r="T56" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" t="s">
-        <v>381</v>
-      </c>
-      <c r="V56" t="s">
-        <v>159</v>
-      </c>
-      <c r="W56" t="s">
-        <v>382</v>
-      </c>
-      <c r="X56" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>384</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>387</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57">
@@ -4460,46 +4454,40 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>386</v>
+      </c>
+      <c r="F57" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" t="s">
         <v>388</v>
       </c>
-      <c r="F57" t="s">
+      <c r="L57" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" t="s">
         <v>389</v>
       </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="N57" t="s">
+        <v>199</v>
+      </c>
+      <c r="O57" t="s">
         <v>390</v>
       </c>
-      <c r="L57" t="s">
-        <v>62</v>
-      </c>
-      <c r="M57" t="s">
-        <v>391</v>
-      </c>
-      <c r="N57" t="s">
-        <v>60</v>
-      </c>
-      <c r="O57" t="s">
-        <v>392</v>
-      </c>
       <c r="P57" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>393</v>
-      </c>
-      <c r="R57" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58">
@@ -4516,70 +4504,70 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" t="s">
         <v>394</v>
       </c>
-      <c r="F58" t="s">
+      <c r="N58" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" t="s">
         <v>395</v>
       </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="P58" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q58" t="s">
         <v>396</v>
       </c>
-      <c r="L58" t="s">
-        <v>129</v>
-      </c>
-      <c r="M58" t="s">
+      <c r="R58" t="s">
         <v>397</v>
       </c>
-      <c r="N58" t="s">
+      <c r="S58" t="s">
         <v>398</v>
       </c>
-      <c r="O58" t="s">
+      <c r="T58" t="s">
+        <v>87</v>
+      </c>
+      <c r="U58" t="s">
         <v>399</v>
       </c>
-      <c r="P58" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q58" t="s">
+      <c r="V58" t="s">
+        <v>199</v>
+      </c>
+      <c r="W58" t="s">
         <v>400</v>
       </c>
-      <c r="R58" t="s">
-        <v>87</v>
-      </c>
-      <c r="S58" t="s">
+      <c r="X58" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y58" t="s">
         <v>401</v>
       </c>
-      <c r="T58" t="s">
-        <v>190</v>
-      </c>
-      <c r="U58" t="s">
-        <v>402</v>
-      </c>
-      <c r="V58" t="s">
-        <v>66</v>
-      </c>
-      <c r="W58" t="s">
-        <v>403</v>
-      </c>
-      <c r="X58" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>404</v>
-      </c>
       <c r="Z58" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
@@ -4596,63 +4584,57 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>402</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" t="s">
+        <v>404</v>
+      </c>
+      <c r="L59" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" t="s">
         <v>405</v>
       </c>
-      <c r="F59" t="s">
+      <c r="N59" t="s">
         <v>406</v>
       </c>
-      <c r="G59" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="O59" t="s">
         <v>407</v>
       </c>
-      <c r="L59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q59" t="s">
         <v>408</v>
       </c>
-      <c r="N59" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="R59" t="s">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s">
         <v>409</v>
       </c>
-      <c r="P59" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>411</v>
-      </c>
-      <c r="R59" t="s">
-        <v>190</v>
-      </c>
-      <c r="S59" t="s">
-        <v>412</v>
-      </c>
       <c r="T59" t="s">
-        <v>87</v>
-      </c>
-      <c r="U59" t="s">
-        <v>413</v>
-      </c>
-      <c r="V59" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -4664,34 +4646,58 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" t="s">
+        <v>411</v>
+      </c>
+      <c r="G60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" t="s">
+        <v>413</v>
+      </c>
+      <c r="N60" t="s">
+        <v>199</v>
+      </c>
+      <c r="O60" t="s">
         <v>414</v>
       </c>
-      <c r="F60" t="s">
+      <c r="P60" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q60" t="s">
         <v>415</v>
       </c>
-      <c r="G60" t="s">
-        <v>149</v>
-      </c>
-      <c r="H60" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" t="s">
-        <v>57</v>
-      </c>
-      <c r="J60" t="s">
-        <v>58</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="R60" t="s">
+        <v>94</v>
+      </c>
+      <c r="S60" t="s">
         <v>416</v>
       </c>
-      <c r="L60" t="s">
-        <v>151</v>
-      </c>
-      <c r="M60" t="s">
+      <c r="T60" t="s">
+        <v>63</v>
+      </c>
+      <c r="U60" t="s">
         <v>417</v>
       </c>
-      <c r="N60" t="s">
-        <v>87</v>
+      <c r="V60" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="61">
@@ -4708,40 +4714,34 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="M61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N61" t="s">
-        <v>190</v>
-      </c>
-      <c r="O61" t="s">
-        <v>422</v>
-      </c>
-      <c r="P61" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
@@ -4764,40 +4764,40 @@
         <v>424</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s">
         <v>425</v>
       </c>
       <c r="L62" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="M62" t="s">
         <v>426</v>
       </c>
       <c r="N62" t="s">
+        <v>87</v>
+      </c>
+      <c r="O62" t="s">
         <v>427</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>428</v>
-      </c>
-      <c r="P62" t="s">
-        <v>72</v>
       </c>
       <c r="Q62" t="s">
         <v>429</v>
       </c>
       <c r="R62" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -4820,28 +4820,28 @@
         <v>431</v>
       </c>
       <c r="G63" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K63" t="s">
         <v>432</v>
       </c>
       <c r="L63" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s">
         <v>433</v>
       </c>
       <c r="N63" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -4867,31 +4867,31 @@
         <v>52</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K64" t="s">
         <v>436</v>
       </c>
       <c r="L64" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M64" t="s">
         <v>437</v>
       </c>
       <c r="N64" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="O64" t="s">
         <v>438</v>
       </c>
       <c r="P64" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
@@ -4914,28 +4914,28 @@
         <v>440</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K65" t="s">
         <v>441</v>
       </c>
       <c r="L65" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M65" t="s">
         <v>442</v>
       </c>
       <c r="N65" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66">
@@ -4958,28 +4958,28 @@
         <v>444</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K66" t="s">
         <v>445</v>
       </c>
       <c r="L66" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="M66" t="s">
         <v>446</v>
       </c>
       <c r="N66" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67">
@@ -5002,34 +5002,34 @@
         <v>448</v>
       </c>
       <c r="G67" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s">
         <v>449</v>
       </c>
       <c r="L67" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s">
         <v>450</v>
       </c>
       <c r="N67" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="O67" t="s">
         <v>451</v>
       </c>
       <c r="P67" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
